--- a/biology/Histoire de la zoologie et de la botanique/Steven_M._Goodman/Steven_M._Goodman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Steven_M._Goodman/Steven_M._Goodman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Steven M. Goodman, né le 3 août 1957, est un biologiste américain travaillant au musée Field de Chicago et spécialiste de Madagascar.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son baccalauréat universitaire ès sciences à l'université du Michigan en 1984, un doctorat à l'université de Hambourg en 2000 et une habilitation à diriger des recherches (HDR) à l'université Paris-Sud en 2005 ; cette même année il est récompensé du prix MacArthur.
 Une espèce fossile de chauves-souris malgaches, Triaenops goodmani, est nommée en son honneur.
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Steven M. Goodman et Jonathan P. Benstead, The Natural History of Madagascar, University of Chicago Press, 2003, 1709 p. (ISBN 978-0-226-30306-2)</t>
         </is>
